--- a/medicine/Sexualité et sexologie/Spectacle_sexuel/Spectacle_sexuel.xlsx
+++ b/medicine/Sexualité et sexologie/Spectacle_sexuel/Spectacle_sexuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un spectacle sexuel est une performance artistique ou de divertissement à caractère érotique ou pornographique impliquant une ou plusieurs personnes effectuant des actes sexuels ou des représentations de nature sexuelle devant un public.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spectacles sexuels ont une longue histoire, remontant à l'Antiquité. Dans la Grèce antique, par exemple, des représentations érotiques étaient parfois incluses dans les pièces de théâtre et les festivités en l'honneur du dieu Dionysos[1]. De même, dans la Rome antique, des spectacles érotiques étaient parfois organisés lors de banquets et de célébrations[2].
-Au cours des siècles suivants, les spectacles sexuels ont évolué en fonction des changements culturels et sociaux. Au XIXe siècle, le mouvement de la Belle Époque en Europe a donné naissance à des spectacles de cabaret mettant en vedette des danseuses et des performances érotiques, comme le célèbre Moulin Rouge à Paris[3]. Au XXe siècle, les spectacles sexuels ont continué à évoluer avec l'apparition du cinéma érotique et pornographique, ainsi que des spectacles de striptease et de burlesque [4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spectacles sexuels ont une longue histoire, remontant à l'Antiquité. Dans la Grèce antique, par exemple, des représentations érotiques étaient parfois incluses dans les pièces de théâtre et les festivités en l'honneur du dieu Dionysos. De même, dans la Rome antique, des spectacles érotiques étaient parfois organisés lors de banquets et de célébrations.
+Au cours des siècles suivants, les spectacles sexuels ont évolué en fonction des changements culturels et sociaux. Au XIXe siècle, le mouvement de la Belle Époque en Europe a donné naissance à des spectacles de cabaret mettant en vedette des danseuses et des performances érotiques, comme le célèbre Moulin Rouge à Paris. Au XXe siècle, les spectacles sexuels ont continué à évoluer avec l'apparition du cinéma érotique et pornographique, ainsi que des spectacles de striptease et de burlesque .
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe plusieurs types de spectacles sexuels, notamment :
 Striptease : un type de spectacle dans lequel une personne se déshabille progressivement devant un public, généralement en dansant ou en effectuant des mouvements sensuels. Ce type de performance est courant dans les clubs de striptease et les bars.
@@ -578,9 +594,11 @@
           <t>Légalité et régulation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La légalité des spectacles sexuels varie considérablement d'un pays à l'autre et même d'une région à l'autre au sein d'un même pays. Dans certains pays, ces spectacles sont légaux et réglementés, tandis que dans d'autres, ils peuvent être illégaux ou limités en fonction de la nature de la performance et de l'âge des participants. Les lois et régulations concernant les spectacles sexuels peuvent également varier en fonction de facteurs tels que la protection des travailleurs du sexe, la santé publique et la moralité sociale[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La légalité des spectacles sexuels varie considérablement d'un pays à l'autre et même d'une région à l'autre au sein d'un même pays. Dans certains pays, ces spectacles sont légaux et réglementés, tandis que dans d'autres, ils peuvent être illégaux ou limités en fonction de la nature de la performance et de l'âge des participants. Les lois et régulations concernant les spectacles sexuels peuvent également varier en fonction de facteurs tels que la protection des travailleurs du sexe, la santé publique et la moralité sociale.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Controverses et critiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spectacles sexuels ont suscité des controverses et des critiques pour diverses raisons. Certains considèrent ces spectacles comme une forme d'exploitation sexuelle, en particulier lorsqu'ils impliquent des travailleurs du sexe contraints ou forcés de participer. D'autres s'inquiètent des effets potentiels sur la santé mentale et physique des participants, ainsi que de la manière dont ces spectacles peuvent contribuer à la propagation d'infections sexuellement transmissibles. Les critiques féministes soulignent également que de nombreux spectacles sexuels renforcent les stéréotypes de genre et objectivent les femmes, les réduisant à des objets sexuels. Cependant, certains défenseurs du mouvement sex-positif soutiennent que les spectacles sexuels peuvent être une forme d'expression artistique et de libération sexuelle, tant pour les artistes que pour les spectateurs, et qu'ils peuvent contribuer à briser les tabous et les stigmates entourant la sexualité[6],[7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spectacles sexuels ont suscité des controverses et des critiques pour diverses raisons. Certains considèrent ces spectacles comme une forme d'exploitation sexuelle, en particulier lorsqu'ils impliquent des travailleurs du sexe contraints ou forcés de participer. D'autres s'inquiètent des effets potentiels sur la santé mentale et physique des participants, ainsi que de la manière dont ces spectacles peuvent contribuer à la propagation d'infections sexuellement transmissibles. Les critiques féministes soulignent également que de nombreux spectacles sexuels renforcent les stéréotypes de genre et objectivent les femmes, les réduisant à des objets sexuels. Cependant, certains défenseurs du mouvement sex-positif soutiennent que les spectacles sexuels peuvent être une forme d'expression artistique et de libération sexuelle, tant pour les artistes que pour les spectateurs, et qu'ils peuvent contribuer à briser les tabous et les stigmates entourant la sexualité.
 </t>
         </is>
       </c>
